--- a/meetings_dumped/schinas_cabinet.xlsx
+++ b/meetings_dumped/schinas_cabinet.xlsx
@@ -3668,7 +3668,7 @@
     <row r="5">
       <c r="A5" s="1021" t="inlineStr">
         <is>
-          <t>Vangelis Demiris</t>
+          <t>Maria Luisa Llano Cardenal</t>
         </is>
       </c>
       <c r="B5" s="1018" t="inlineStr">
@@ -3678,24 +3678,24 @@
       </c>
       <c r="C5" s="1021" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D5" s="1021" t="inlineStr">
         <is>
-          <t>Fundación Privada Monte de Piedad y Caja de Ahorros San Fernando de Huelva, Jerez y Sevilla</t>
+          <t>European Healthcare Distribution Association</t>
         </is>
       </c>
       <c r="E5" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Migration and Asylum</t>
+          <t xml:space="preserve"> Revision of the Pharmaceutical legislation </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1021" t="inlineStr">
         <is>
-          <t>Maria Luisa Llano Cardenal</t>
+          <t>Vangelis Demiris</t>
         </is>
       </c>
       <c r="B6" s="1018" t="inlineStr">
@@ -3705,24 +3705,24 @@
       </c>
       <c r="C6" s="1021" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>online</t>
         </is>
       </c>
       <c r="D6" s="1021" t="inlineStr">
         <is>
-          <t>European Healthcare Distribution Association</t>
+          <t>Fundación Privada Monte de Piedad y Caja de Ahorros San Fernando de Huelva, Jerez y Sevilla</t>
         </is>
       </c>
       <c r="E6" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Revision of the Pharmaceutical legislation </t>
+          <t xml:space="preserve"> Migration and Asylum</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1021" t="inlineStr">
         <is>
-          <t>Despina Spanou, Maria Luisa Llano Cardenal</t>
+          <t>Chris Uregian</t>
         </is>
       </c>
       <c r="B7" s="1018" t="inlineStr">
@@ -3737,19 +3737,19 @@
       </c>
       <c r="D7" s="1021" t="inlineStr">
         <is>
-          <t>European Federation of Pharmaceutical Industries and Associations</t>
+          <t>Mastercard Europe</t>
         </is>
       </c>
       <c r="E7" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve">Revision of the pharmaceutical legislation </t>
+          <t>Ukraine, cyber-resilience and skills, combatting child sexual abuse online</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1021" t="inlineStr">
         <is>
-          <t>Chris Uregian</t>
+          <t>Despina Spanou, Maria Luisa Llano Cardenal</t>
         </is>
       </c>
       <c r="B8" s="1018" t="inlineStr">
@@ -3764,12 +3764,12 @@
       </c>
       <c r="D8" s="1021" t="inlineStr">
         <is>
-          <t>Mastercard Europe</t>
+          <t>European Federation of Pharmaceutical Industries and Associations</t>
         </is>
       </c>
       <c r="E8" s="1021" t="inlineStr">
         <is>
-          <t>Ukraine, cyber-resilience and skills, combatting child sexual abuse online</t>
+          <t xml:space="preserve">Revision of the pharmaceutical legislation </t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
     <row r="14">
       <c r="A14" s="1021" t="inlineStr">
         <is>
-          <t>Natasha Bertaud</t>
+          <t>Maria Luisa Llano Cardenal</t>
         </is>
       </c>
       <c r="B14" s="1018" t="inlineStr">
@@ -3926,19 +3926,19 @@
       </c>
       <c r="D14" s="1021" t="inlineStr">
         <is>
-          <t>Universitetet i Bergen</t>
+          <t>European Public Health Alliance, European Patients' Forum (EPF)</t>
         </is>
       </c>
       <c r="E14" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Migration and Asylum </t>
+          <t xml:space="preserve"> Pharma Strategy</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1021" t="inlineStr">
         <is>
-          <t>Maria Luisa Llano Cardenal</t>
+          <t>Natasha Bertaud</t>
         </is>
       </c>
       <c r="B15" s="1018" t="inlineStr">
@@ -3953,12 +3953,12 @@
       </c>
       <c r="D15" s="1021" t="inlineStr">
         <is>
-          <t>European Public Health Alliance, European Patients' Forum (EPF)</t>
+          <t>Universitetet i Bergen</t>
         </is>
       </c>
       <c r="E15" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pharma Strategy</t>
+          <t xml:space="preserve"> Migration and Asylum </t>
         </is>
       </c>
     </row>
@@ -4116,12 +4116,12 @@
       </c>
       <c r="D21" s="1021" t="inlineStr">
         <is>
-          <t>AJC Transatlantic Institute</t>
+          <t>European Jewish Congress</t>
         </is>
       </c>
       <c r="E21" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Combatting Antisemitism, Holocaust Remembrance Day</t>
+          <t xml:space="preserve">  Combatting Antisemitism, Holocaust Remembrance Day</t>
         </is>
       </c>
     </row>
@@ -4143,12 +4143,12 @@
       </c>
       <c r="D22" s="1021" t="inlineStr">
         <is>
-          <t>European Jewish Congress</t>
+          <t>AJC Transatlantic Institute</t>
         </is>
       </c>
       <c r="E22" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Combatting Antisemitism, Holocaust Remembrance Day</t>
+          <t xml:space="preserve"> Combatting Antisemitism, Holocaust Remembrance Day</t>
         </is>
       </c>
     </row>
@@ -4182,7 +4182,7 @@
     <row r="24">
       <c r="A24" s="1021" t="inlineStr">
         <is>
-          <t>Maria Luisa Llano Cardenal</t>
+          <t>Chris Uregian, Despina Spanou</t>
         </is>
       </c>
       <c r="B24" s="1018" t="inlineStr">
@@ -4197,19 +4197,19 @@
       </c>
       <c r="D24" s="1021" t="inlineStr">
         <is>
-          <t>SMEunited aisbl</t>
+          <t>Microsoft Corporation</t>
         </is>
       </c>
       <c r="E24" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> European Year of Skills (with Cabinet Commissioner Schmit)</t>
+          <t>Cybersecurity Skills Academy</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1021" t="inlineStr">
         <is>
-          <t>Chris Uregian, Despina Spanou</t>
+          <t>Maria Luisa Llano Cardenal</t>
         </is>
       </c>
       <c r="B25" s="1018" t="inlineStr">
@@ -4224,19 +4224,19 @@
       </c>
       <c r="D25" s="1021" t="inlineStr">
         <is>
-          <t>Microsoft Corporation</t>
+          <t>SMEunited aisbl</t>
         </is>
       </c>
       <c r="E25" s="1021" t="inlineStr">
         <is>
-          <t>Cybersecurity Skills Academy</t>
+          <t xml:space="preserve"> European Year of Skills (with Cabinet Commissioner Schmit)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1021" t="inlineStr">
         <is>
-          <t>Chris Uregian, Despina Spanou</t>
+          <t>Despina Spanou, Chris Uregian</t>
         </is>
       </c>
       <c r="B26" s="1018" t="inlineStr">
@@ -4345,25 +4345,52 @@
     <row r="30">
       <c r="A30" s="1021" t="inlineStr">
         <is>
+          <t>Chris Uregian</t>
+        </is>
+      </c>
+      <c r="B30" s="1018" t="inlineStr">
+        <is>
+          <t>01/12/2022</t>
+        </is>
+      </c>
+      <c r="C30" s="1021" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D30" s="1021" t="inlineStr">
+        <is>
+          <t>Moody's Shared Services UK Ltd.</t>
+        </is>
+      </c>
+      <c r="E30" s="1021" t="inlineStr">
+        <is>
+          <t xml:space="preserve">insights and research into cyber risk in the EU </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1021" t="inlineStr">
+        <is>
           <t>Despina Spanou, Chris Uregian</t>
         </is>
       </c>
-      <c r="B30" s="1018" t="inlineStr">
+      <c r="B31" s="1018" t="inlineStr">
         <is>
           <t>01/12/2022</t>
         </is>
       </c>
-      <c r="C30" s="1021" t="inlineStr">
+      <c r="C31" s="1021" t="inlineStr">
         <is>
           <t>Brussels</t>
         </is>
       </c>
-      <c r="D30" s="1021" t="inlineStr">
+      <c r="D31" s="1021" t="inlineStr">
         <is>
           <t>Cisco Systems Inc.</t>
         </is>
       </c>
-      <c r="E30" s="1021" t="inlineStr">
+      <c r="E31" s="1021" t="inlineStr">
         <is>
           <t xml:space="preserve">- the transatlantic relationship
 - the EU security/cybersecurity agenda
@@ -4373,33 +4400,6 @@
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1021" t="inlineStr">
-        <is>
-          <t>Chris Uregian</t>
-        </is>
-      </c>
-      <c r="B31" s="1018" t="inlineStr">
-        <is>
-          <t>01/12/2022</t>
-        </is>
-      </c>
-      <c r="C31" s="1021" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D31" s="1021" t="inlineStr">
-        <is>
-          <t>Moody's Shared Services UK Ltd.</t>
-        </is>
-      </c>
-      <c r="E31" s="1021" t="inlineStr">
-        <is>
-          <t xml:space="preserve">insights and research into cyber risk in the EU </t>
-        </is>
-      </c>
-    </row>
     <row r="32">
       <c r="A32" s="1021" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
     <row r="34">
       <c r="A34" s="1021" t="inlineStr">
         <is>
-          <t>Despina Spanou, Maria Luisa Llano Cardenal</t>
+          <t>Maria Luisa Llano Cardenal, Despina Spanou</t>
         </is>
       </c>
       <c r="B34" s="1018" t="inlineStr">
@@ -4499,41 +4499,41 @@
       </c>
       <c r="D35" s="1021" t="inlineStr">
         <is>
+          <t>International Information System Security Certification Consortium</t>
+        </is>
+      </c>
+      <c r="E35" s="1021" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cybersecurity skills academy</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1021" t="inlineStr">
+        <is>
+          <t>Chris Uregian</t>
+        </is>
+      </c>
+      <c r="B36" s="1018" t="inlineStr">
+        <is>
+          <t>26/10/2022</t>
+        </is>
+      </c>
+      <c r="C36" s="1021" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D36" s="1021" t="inlineStr">
+        <is>
           <t>SEV - Hellenic Federation of Enterprises</t>
         </is>
       </c>
-      <c r="E35" s="1021" t="inlineStr">
+      <c r="E36" s="1021" t="inlineStr">
         <is>
           <t>Meeting new Director General
 Energy crisis
 EU Energy package, Re-power EU</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1021" t="inlineStr">
-        <is>
-          <t>Chris Uregian</t>
-        </is>
-      </c>
-      <c r="B36" s="1018" t="inlineStr">
-        <is>
-          <t>26/10/2022</t>
-        </is>
-      </c>
-      <c r="C36" s="1021" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D36" s="1021" t="inlineStr">
-        <is>
-          <t>International Information System Security Certification Consortium</t>
-        </is>
-      </c>
-      <c r="E36" s="1021" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Cybersecurity skills academy</t>
         </is>
       </c>
     </row>
@@ -4732,7 +4732,7 @@
     <row r="44">
       <c r="A44" s="1021" t="inlineStr">
         <is>
-          <t>Chris Uregian, Despina Spanou</t>
+          <t>Maria Luisa Llano Cardenal</t>
         </is>
       </c>
       <c r="B44" s="1018" t="inlineStr">
@@ -4742,24 +4742,24 @@
       </c>
       <c r="C44" s="1021" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Sitges</t>
         </is>
       </c>
       <c r="D44" s="1021" t="inlineStr">
         <is>
-          <t>Zoom Video Communications, Inc.</t>
+          <t>MEDICINES FOR EUROPE</t>
         </is>
       </c>
       <c r="E44" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> update on Zoom's new initiatives</t>
+          <t xml:space="preserve"> Pharma strategy</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1021" t="inlineStr">
         <is>
-          <t>Maria Luisa Llano Cardenal</t>
+          <t>Despina Spanou, Chris Uregian</t>
         </is>
       </c>
       <c r="B45" s="1018" t="inlineStr">
@@ -4769,17 +4769,17 @@
       </c>
       <c r="C45" s="1021" t="inlineStr">
         <is>
-          <t>Sitges</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D45" s="1021" t="inlineStr">
         <is>
-          <t>MEDICINES FOR EUROPE</t>
+          <t>Zoom Video Communications, Inc.</t>
         </is>
       </c>
       <c r="E45" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pharma strategy</t>
+          <t xml:space="preserve"> update on Zoom's new initiatives</t>
         </is>
       </c>
     </row>
@@ -4867,7 +4867,7 @@
     <row r="49">
       <c r="A49" s="1021" t="inlineStr">
         <is>
-          <t>Despina Spanou, Chris Uregian, Maria-Myrto Kanellopoulou</t>
+          <t>Chris Uregian, Despina Spanou, Maria-Myrto Kanellopoulou</t>
         </is>
       </c>
       <c r="B49" s="1018" t="inlineStr">
@@ -4894,7 +4894,7 @@
     <row r="50">
       <c r="A50" s="1021" t="inlineStr">
         <is>
-          <t>Despina Spanou</t>
+          <t>Chris Uregian</t>
         </is>
       </c>
       <c r="B50" s="1018" t="inlineStr">
@@ -4909,41 +4909,41 @@
       </c>
       <c r="D50" s="1021" t="inlineStr">
         <is>
-          <t>Bitkom e.V.</t>
+          <t>Royal Caribbean Group</t>
         </is>
       </c>
       <c r="E50" s="1021" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Cybersecurity skills</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1021" t="inlineStr">
-        <is>
-          <t>Chris Uregian</t>
-        </is>
-      </c>
-      <c r="B51" s="1018" t="inlineStr">
-        <is>
-          <t>15/06/2022</t>
-        </is>
-      </c>
-      <c r="C51" s="1021" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D51" s="1021" t="inlineStr">
-        <is>
-          <t>Royal Caribbean Group</t>
-        </is>
-      </c>
-      <c r="E51" s="1021" t="inlineStr">
         <is>
           <t xml:space="preserve">- post-COVID recovery of the cruise industry
 - role of the maritime sector in contributing to the green transition
 </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1021" t="inlineStr">
+        <is>
+          <t>Despina Spanou</t>
+        </is>
+      </c>
+      <c r="B51" s="1018" t="inlineStr">
+        <is>
+          <t>15/06/2022</t>
+        </is>
+      </c>
+      <c r="C51" s="1021" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D51" s="1021" t="inlineStr">
+        <is>
+          <t>Bitkom e.V.</t>
+        </is>
+      </c>
+      <c r="E51" s="1021" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cybersecurity skills</t>
         </is>
       </c>
     </row>
@@ -5063,7 +5063,7 @@
     <row r="56">
       <c r="A56" s="1021" t="inlineStr">
         <is>
-          <t>Chris Uregian, Natasha Bertaud</t>
+          <t>Natasha Bertaud, Chris Uregian</t>
         </is>
       </c>
       <c r="B56" s="1018" t="inlineStr">
@@ -5225,7 +5225,7 @@
     <row r="62">
       <c r="A62" s="1021" t="inlineStr">
         <is>
-          <t>Maria Luisa Llano Cardenal, Despina Spanou</t>
+          <t>Chris Uregian</t>
         </is>
       </c>
       <c r="B62" s="1018" t="inlineStr">
@@ -5235,17 +5235,17 @@
       </c>
       <c r="C62" s="1021" t="inlineStr">
         <is>
-          <t>online meeting</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D62" s="1021" t="inlineStr">
         <is>
-          <t>European Federation of Pharmaceutical Industries and Associations</t>
+          <t>Vodafone Belgium SA</t>
         </is>
       </c>
       <c r="E62" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> access to medicines online portal</t>
+          <t xml:space="preserve"> Ukraine crisis response, cybersecurity</t>
         </is>
       </c>
     </row>
@@ -5279,7 +5279,7 @@
     <row r="64">
       <c r="A64" s="1021" t="inlineStr">
         <is>
-          <t>Chris Uregian</t>
+          <t>Despina Spanou, Maria Luisa Llano Cardenal</t>
         </is>
       </c>
       <c r="B64" s="1018" t="inlineStr">
@@ -5289,17 +5289,17 @@
       </c>
       <c r="C64" s="1021" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>online meeting</t>
         </is>
       </c>
       <c r="D64" s="1021" t="inlineStr">
         <is>
-          <t>Vodafone Belgium SA</t>
+          <t>European Federation of Pharmaceutical Industries and Associations</t>
         </is>
       </c>
       <c r="E64" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ukraine crisis response, cybersecurity</t>
+          <t xml:space="preserve"> access to medicines online portal</t>
         </is>
       </c>
     </row>
@@ -5390,7 +5390,7 @@
     <row r="68">
       <c r="A68" s="1021" t="inlineStr">
         <is>
-          <t>Maria-Myrto Kanellopoulou, Vangelis Demiris</t>
+          <t>Vangelis Demiris, Maria-Myrto Kanellopoulou</t>
         </is>
       </c>
       <c r="B68" s="1018" t="inlineStr">
@@ -5417,7 +5417,7 @@
     <row r="69">
       <c r="A69" s="1021" t="inlineStr">
         <is>
-          <t>Chris Uregian, Despina Spanou</t>
+          <t>Vangelis Demiris</t>
         </is>
       </c>
       <c r="B69" s="1018" t="inlineStr">
@@ -5427,24 +5427,24 @@
       </c>
       <c r="C69" s="1021" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Zurich, Switzerland</t>
         </is>
       </c>
       <c r="D69" s="1021" t="inlineStr">
         <is>
-          <t>ΟΡΓΑΝΙΣΜΟΣ ΛΙΜΕΝΟΣ ΘΕΣΣΑΛΟΝΙΚΗΣ ΑΕ</t>
+          <t>Fédération Internationale de Football Association</t>
         </is>
       </c>
       <c r="E69" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> update on investment plan</t>
+          <t xml:space="preserve"> FIFA World Cup Qatar 2022™ and Human Rights, Future of global football and the European model of sport, FIFA Transfer System Reform, Safe Sport Entity</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1021" t="inlineStr">
         <is>
-          <t>Vangelis Demiris</t>
+          <t>Chris Uregian, Despina Spanou</t>
         </is>
       </c>
       <c r="B70" s="1018" t="inlineStr">
@@ -5454,17 +5454,17 @@
       </c>
       <c r="C70" s="1021" t="inlineStr">
         <is>
-          <t>Zurich, Switzerland</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D70" s="1021" t="inlineStr">
         <is>
-          <t>Fédération Internationale de Football Association</t>
+          <t>ΟΡΓΑΝΙΣΜΟΣ ΛΙΜΕΝΟΣ ΘΕΣΣΑΛΟΝΙΚΗΣ ΑΕ</t>
         </is>
       </c>
       <c r="E70" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FIFA World Cup Qatar 2022™ and Human Rights, Future of global football and the European model of sport, FIFA Transfer System Reform, Safe Sport Entity</t>
+          <t xml:space="preserve"> update on investment plan</t>
         </is>
       </c>
     </row>
@@ -5660,7 +5660,7 @@
     <row r="78">
       <c r="A78" s="1021" t="inlineStr">
         <is>
-          <t>Despina Spanou, Maria-Myrto Kanellopoulou, Natasha Bertaud</t>
+          <t>Natasha Bertaud, Maria-Myrto Kanellopoulou, Despina Spanou</t>
         </is>
       </c>
       <c r="B78" s="1018" t="inlineStr">
@@ -5714,7 +5714,7 @@
     <row r="80">
       <c r="A80" s="1021" t="inlineStr">
         <is>
-          <t>Vangelis Demiris, Maria-Myrto Kanellopoulou, Maria Krikou</t>
+          <t>Maria-Myrto Kanellopoulou, Maria Krikou, Vangelis Demiris</t>
         </is>
       </c>
       <c r="B80" s="1018" t="inlineStr">
@@ -5832,12 +5832,12 @@
       </c>
       <c r="C84" s="1021" t="inlineStr">
         <is>
-          <t>Paianias</t>
+          <t>Athens</t>
         </is>
       </c>
       <c r="D84" s="1021" t="inlineStr">
         <is>
-          <t>Boehringer Ingelheim</t>
+          <t>Panhellenic Union of Pharmaceutical Industry</t>
         </is>
       </c>
       <c r="E84" s="1021" t="inlineStr">
@@ -5859,17 +5859,17 @@
       </c>
       <c r="C85" s="1021" t="inlineStr">
         <is>
-          <t>Athens</t>
+          <t>Paianias</t>
         </is>
       </c>
       <c r="D85" s="1021" t="inlineStr">
         <is>
-          <t>MEDICINES FOR EUROPE</t>
+          <t>Boehringer Ingelheim</t>
         </is>
       </c>
       <c r="E85" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pharma Strategy </t>
+          <t xml:space="preserve"> Pharma policies</t>
         </is>
       </c>
     </row>
@@ -5891,12 +5891,12 @@
       </c>
       <c r="D86" s="1021" t="inlineStr">
         <is>
-          <t>Panhellenic Union of Pharmaceutical Industry</t>
+          <t>MEDICINES FOR EUROPE</t>
         </is>
       </c>
       <c r="E86" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pharma policies</t>
+          <t xml:space="preserve"> Pharma Strategy </t>
         </is>
       </c>
     </row>
@@ -6038,7 +6038,7 @@
     <row r="92">
       <c r="A92" s="1021" t="inlineStr">
         <is>
-          <t>Chris Uregian</t>
+          <t>Catherine Sustek</t>
         </is>
       </c>
       <c r="B92" s="1018" t="inlineStr">
@@ -6053,19 +6053,19 @@
       </c>
       <c r="D92" s="1021" t="inlineStr">
         <is>
-          <t>Philanthropy Europe Association, Donors and Foundations Networks in Europe</t>
+          <t>Erasmus Student Network</t>
         </is>
       </c>
       <c r="E92" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Philanthropy</t>
+          <t xml:space="preserve"> Erasmus Student Network</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1021" t="inlineStr">
         <is>
-          <t>Catherine Sustek</t>
+          <t>Chris Uregian</t>
         </is>
       </c>
       <c r="B93" s="1018" t="inlineStr">
@@ -6080,19 +6080,19 @@
       </c>
       <c r="D93" s="1021" t="inlineStr">
         <is>
-          <t>Erasmus Student Network</t>
+          <t>Philanthropy Europe Association, Donors and Foundations Networks in Europe</t>
         </is>
       </c>
       <c r="E93" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erasmus Student Network</t>
+          <t xml:space="preserve"> Philanthropy</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1021" t="inlineStr">
         <is>
-          <t>Despina Spanou, Chris Uregian, Maria-Myrto Kanellopoulou</t>
+          <t>Chris Uregian, Maria-Myrto Kanellopoulou, Despina Spanou</t>
         </is>
       </c>
       <c r="B94" s="1018" t="inlineStr">
@@ -6146,7 +6146,7 @@
     <row r="96">
       <c r="A96" s="1021" t="inlineStr">
         <is>
-          <t>Maria-Myrto Kanellopoulou, Chris Uregian</t>
+          <t>Chris Uregian, Maria-Myrto Kanellopoulou</t>
         </is>
       </c>
       <c r="B96" s="1018" t="inlineStr">
@@ -6200,7 +6200,7 @@
     <row r="98">
       <c r="A98" s="1021" t="inlineStr">
         <is>
-          <t>Maria-Myrto Kanellopoulou, Chris Uregian</t>
+          <t>Chris Uregian, Maria-Myrto Kanellopoulou</t>
         </is>
       </c>
       <c r="B98" s="1018" t="inlineStr">
@@ -6254,7 +6254,7 @@
     <row r="100">
       <c r="A100" s="1021" t="inlineStr">
         <is>
-          <t>Maria Luisa Llano Cardenal</t>
+          <t>Vangelis Demiris</t>
         </is>
       </c>
       <c r="B100" s="1018" t="inlineStr">
@@ -6264,24 +6264,24 @@
       </c>
       <c r="C100" s="1021" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>BERL</t>
         </is>
       </c>
       <c r="D100" s="1021" t="inlineStr">
         <is>
-          <t>Medichem, S.A., European Federation of Pharmaceutical Industries and Associations, Leuphana Universität Lüneburg, Fresenius Kabi Deutschland GmbH, SANOFI, European Chemical Industry Council, Teva Pharmaceuticals Europe BV, Pfizer Inc., Pharmaceutical Group of the European Union, Novo Nordisk A/S, Bureau Européen des Unions de Consommateurs, MEDICINES FOR EUROPE, The European Association of Hospital Pharmacists, European Patients' Forum (EPF), European Healthcare Distribution Association</t>
+          <t>Udruga za sport, rekreaciju i edukaciju- Igre mladih</t>
         </is>
       </c>
       <c r="E100" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve">Supply chains for medicines </t>
+          <t xml:space="preserve"> Vice-President Schinas holds a meeting with the representatives of the Youth Sports Game</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1021" t="inlineStr">
         <is>
-          <t>Vangelis Demiris</t>
+          <t>Maria Luisa Llano Cardenal</t>
         </is>
       </c>
       <c r="B101" s="1018" t="inlineStr">
@@ -6291,17 +6291,17 @@
       </c>
       <c r="C101" s="1021" t="inlineStr">
         <is>
-          <t>BERL</t>
+          <t>online</t>
         </is>
       </c>
       <c r="D101" s="1021" t="inlineStr">
         <is>
-          <t>Udruga za sport, rekreaciju i edukaciju- Igre mladih</t>
+          <t>Medichem, S.A., European Federation of Pharmaceutical Industries and Associations, Leuphana Universität Lüneburg, Fresenius Kabi Deutschland GmbH, SANOFI, European Chemical Industry Council, Teva Pharmaceuticals Europe BV, Pfizer Inc., Pharmaceutical Group of the European Union, Novo Nordisk A/S, Bureau Européen des Unions de Consommateurs, MEDICINES FOR EUROPE, The European Association of Hospital Pharmacists, European Patients' Forum (EPF), European Healthcare Distribution Association</t>
         </is>
       </c>
       <c r="E101" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vice-President Schinas holds a meeting with the representatives of the Youth Sports Game</t>
+          <t xml:space="preserve">Supply chains for medicines </t>
         </is>
       </c>
     </row>
@@ -7065,7 +7065,7 @@
     <row r="130">
       <c r="A130" s="1021" t="inlineStr">
         <is>
-          <t>Natasha Bertaud</t>
+          <t>Catherine Sustek</t>
         </is>
       </c>
       <c r="B130" s="1018" t="inlineStr">
@@ -7075,24 +7075,24 @@
       </c>
       <c r="C130" s="1021" t="inlineStr">
         <is>
-          <t>Virtual</t>
+          <t>virtual meeting</t>
         </is>
       </c>
       <c r="D130" s="1021" t="inlineStr">
         <is>
-          <t>Bruegel</t>
+          <t>ENEL SpA</t>
         </is>
       </c>
       <c r="E130" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Pact on Migration and Asylum </t>
+          <t xml:space="preserve"> Recovery plan</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1021" t="inlineStr">
         <is>
-          <t>Catherine Sustek</t>
+          <t>Natasha Bertaud</t>
         </is>
       </c>
       <c r="B131" s="1018" t="inlineStr">
@@ -7102,17 +7102,17 @@
       </c>
       <c r="C131" s="1021" t="inlineStr">
         <is>
-          <t>virtual meeting</t>
+          <t>Virtual</t>
         </is>
       </c>
       <c r="D131" s="1021" t="inlineStr">
         <is>
-          <t>ENEL SpA</t>
+          <t>Bruegel</t>
         </is>
       </c>
       <c r="E131" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Recovery plan</t>
+          <t xml:space="preserve"> New Pact on Migration and Asylum </t>
         </is>
       </c>
     </row>
@@ -7156,17 +7156,17 @@
       </c>
       <c r="C133" s="1021" t="inlineStr">
         <is>
-          <t>Virtually</t>
+          <t>virtually</t>
         </is>
       </c>
       <c r="D133" s="1021" t="inlineStr">
         <is>
-          <t>Udruga za sport, rekreaciju i edukaciju- Igre mladih</t>
+          <t>Union of European Football Associations</t>
         </is>
       </c>
       <c r="E133" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vice-President Schinas holds a videoconference call with the representatives of the Youth Sports Game</t>
+          <t xml:space="preserve"> Vice-President Schinas holds a videoconference call with the UEFA President</t>
         </is>
       </c>
     </row>
@@ -7183,17 +7183,17 @@
       </c>
       <c r="C134" s="1021" t="inlineStr">
         <is>
-          <t>virtually</t>
+          <t>Virtually</t>
         </is>
       </c>
       <c r="D134" s="1021" t="inlineStr">
         <is>
-          <t>Union of European Football Associations</t>
+          <t>Udruga za sport, rekreaciju i edukaciju- Igre mladih</t>
         </is>
       </c>
       <c r="E134" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vice-President Schinas holds a videoconference call with the UEFA President</t>
+          <t xml:space="preserve"> Vice-President Schinas holds a videoconference call with the representatives of the Youth Sports Game</t>
         </is>
       </c>
     </row>
@@ -7308,7 +7308,7 @@
     <row r="139">
       <c r="A139" s="1021" t="inlineStr">
         <is>
-          <t>Despina Spanou, Catherine Sustek</t>
+          <t>Catherine Sustek, Despina Spanou</t>
         </is>
       </c>
       <c r="B139" s="1018" t="inlineStr">
@@ -7416,7 +7416,7 @@
     <row r="143">
       <c r="A143" s="1021" t="inlineStr">
         <is>
-          <t>Maria Luisa Llano Cardenal, Despina Spanou</t>
+          <t>Despina Spanou, Maria Luisa Llano Cardenal</t>
         </is>
       </c>
       <c r="B143" s="1018" t="inlineStr">
@@ -7470,7 +7470,7 @@
     <row r="145">
       <c r="A145" s="1021" t="inlineStr">
         <is>
-          <t>Maria-Myrto Kanellopoulou, Despina Spanou</t>
+          <t>Despina Spanou, Maria-Myrto Kanellopoulou</t>
         </is>
       </c>
       <c r="B145" s="1018" t="inlineStr">
@@ -7578,7 +7578,7 @@
     <row r="149">
       <c r="A149" s="1021" t="inlineStr">
         <is>
-          <t>Vangelis Demiris, Despina Spanou</t>
+          <t>Despina Spanou, Vangelis Demiris</t>
         </is>
       </c>
       <c r="B149" s="1018" t="inlineStr">
@@ -7696,17 +7696,17 @@
       </c>
       <c r="C153" s="1021" t="inlineStr">
         <is>
-          <t>Conference call</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D153" s="1021" t="inlineStr">
         <is>
-          <t>Union of European Football Associations</t>
+          <t>Aerospace, Security and Defence Industries Association of Europe</t>
         </is>
       </c>
       <c r="E153" s="1021" t="inlineStr">
         <is>
-          <t>European Way of Life portfolio and European football and sports</t>
+          <t xml:space="preserve"> Security Union</t>
         </is>
       </c>
     </row>
@@ -7723,17 +7723,17 @@
       </c>
       <c r="C154" s="1021" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>Conference call</t>
         </is>
       </c>
       <c r="D154" s="1021" t="inlineStr">
         <is>
-          <t>Aerospace, Security and Defence Industries Association of Europe</t>
+          <t>Union of European Football Associations</t>
         </is>
       </c>
       <c r="E154" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Security Union</t>
+          <t>European Way of Life portfolio and European football and sports</t>
         </is>
       </c>
     </row>
@@ -7767,7 +7767,7 @@
     <row r="156">
       <c r="A156" s="1021" t="inlineStr">
         <is>
-          <t>Despina Spanou, Vangelis Demiris</t>
+          <t>Vangelis Demiris, Despina Spanou</t>
         </is>
       </c>
       <c r="B156" s="1018" t="inlineStr">
@@ -7794,7 +7794,7 @@
     <row r="157">
       <c r="A157" s="1021" t="inlineStr">
         <is>
-          <t>Catherine Sustek, Despina Spanou, Maria Luisa Llano Cardenal</t>
+          <t>Catherine Sustek, Maria Luisa Llano Cardenal, Despina Spanou</t>
         </is>
       </c>
       <c r="B157" s="1018" t="inlineStr">
@@ -7821,7 +7821,7 @@
     <row r="158">
       <c r="A158" s="1021" t="inlineStr">
         <is>
-          <t>Despina Spanou, Vangelis Demiris</t>
+          <t>Maria Luisa Llano Cardenal</t>
         </is>
       </c>
       <c r="B158" s="1018" t="inlineStr">
@@ -7836,19 +7836,19 @@
       </c>
       <c r="D158" s="1021" t="inlineStr">
         <is>
-          <t>Aerospace, Security and Defence Industries Association of Europe</t>
+          <t>BUSINESSEUROPE, SGI Europe, SMEunited aisbl, EUROPEAN TRADE UNION CONFEDERATION</t>
         </is>
       </c>
       <c r="E158" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exchange of views on the new Security Union Strategy</t>
+          <t xml:space="preserve"> Skills  Agenda</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1021" t="inlineStr">
         <is>
-          <t>Maria Luisa Llano Cardenal</t>
+          <t>Vangelis Demiris, Despina Spanou</t>
         </is>
       </c>
       <c r="B159" s="1018" t="inlineStr">
@@ -7863,19 +7863,19 @@
       </c>
       <c r="D159" s="1021" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE, SGI Europe, SMEunited aisbl, EUROPEAN TRADE UNION CONFEDERATION</t>
+          <t>Aerospace, Security and Defence Industries Association of Europe</t>
         </is>
       </c>
       <c r="E159" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Skills  Agenda</t>
+          <t xml:space="preserve"> Exchange of views on the new Security Union Strategy</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1021" t="inlineStr">
         <is>
-          <t>Maria Luisa Llano Cardenal, Despina Spanou</t>
+          <t>Despina Spanou, Maria Luisa Llano Cardenal</t>
         </is>
       </c>
       <c r="B160" s="1018" t="inlineStr">
@@ -7956,7 +7956,7 @@
     <row r="163">
       <c r="A163" s="1021" t="inlineStr">
         <is>
-          <t>Despina Spanou, Chris Uregian</t>
+          <t>Chris Uregian, Despina Spanou</t>
         </is>
       </c>
       <c r="B163" s="1018" t="inlineStr">
@@ -8091,7 +8091,7 @@
     <row r="168">
       <c r="A168" s="1021" t="inlineStr">
         <is>
-          <t>Catherine Sustek</t>
+          <t>Chris Uregian</t>
         </is>
       </c>
       <c r="B168" s="1018" t="inlineStr">
@@ -8101,24 +8101,24 @@
       </c>
       <c r="C168" s="1021" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>Virtual meeting</t>
         </is>
       </c>
       <c r="D168" s="1021" t="inlineStr">
         <is>
-          <t>Hope and Homes for Children, Lumos Foundation</t>
+          <t>(SETE) GREEK TOURISM CONFEDERATION</t>
         </is>
       </c>
       <c r="E168" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve">Children in migration   </t>
+          <t xml:space="preserve"> Tourism package</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1021" t="inlineStr">
         <is>
-          <t>Chris Uregian</t>
+          <t>Catherine Sustek</t>
         </is>
       </c>
       <c r="B169" s="1018" t="inlineStr">
@@ -8128,24 +8128,24 @@
       </c>
       <c r="C169" s="1021" t="inlineStr">
         <is>
-          <t>Virtual meeting</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D169" s="1021" t="inlineStr">
         <is>
-          <t>(SETE) GREEK TOURISM CONFEDERATION</t>
+          <t>Hope and Homes for Children, Lumos Foundation</t>
         </is>
       </c>
       <c r="E169" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tourism package</t>
+          <t xml:space="preserve">Children in migration   </t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1021" t="inlineStr">
         <is>
-          <t>Maria Luisa Llano Cardenal</t>
+          <t>Despina Spanou</t>
         </is>
       </c>
       <c r="B170" s="1018" t="inlineStr">
@@ -8155,24 +8155,24 @@
       </c>
       <c r="C170" s="1021" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>Virtual meeting via teleconference</t>
         </is>
       </c>
       <c r="D170" s="1021" t="inlineStr">
         <is>
-          <t>Atlantic Council of the United States, Inc</t>
+          <t>European Cyber Security Organisation</t>
         </is>
       </c>
       <c r="E170" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve">US-EU at 70: The Way Forward </t>
+          <t xml:space="preserve"> Cybersecurity and ECSO's initiatives</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1021" t="inlineStr">
         <is>
-          <t>Despina Spanou</t>
+          <t>Maria Luisa Llano Cardenal</t>
         </is>
       </c>
       <c r="B171" s="1018" t="inlineStr">
@@ -8182,17 +8182,17 @@
       </c>
       <c r="C171" s="1021" t="inlineStr">
         <is>
-          <t>Virtual meeting via teleconference</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D171" s="1021" t="inlineStr">
         <is>
-          <t>European Cyber Security Organisation</t>
+          <t>Atlantic Council of the United States, Inc</t>
         </is>
       </c>
       <c r="E171" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cybersecurity and ECSO's initiatives</t>
+          <t xml:space="preserve">US-EU at 70: The Way Forward </t>
         </is>
       </c>
     </row>
@@ -8767,7 +8767,7 @@
     <row r="193">
       <c r="A193" s="1021" t="inlineStr">
         <is>
-          <t>Maria Luisa Llano Cardenal, Catherine Sustek</t>
+          <t>Catherine Sustek, Maria Luisa Llano Cardenal</t>
         </is>
       </c>
       <c r="B193" s="1018" t="inlineStr">
@@ -8821,7 +8821,7 @@
     <row r="195">
       <c r="A195" s="1021" t="inlineStr">
         <is>
-          <t>Catherine Sustek</t>
+          <t>Chris Uregian</t>
         </is>
       </c>
       <c r="B195" s="1018" t="inlineStr">
@@ -8836,19 +8836,19 @@
       </c>
       <c r="D195" s="1021" t="inlineStr">
         <is>
-          <t>Conferencia de Rectores de las Universidades Españolas</t>
+          <t>ΕΛΛΗΝΙΚΗ ΕΝΩΣΗ ΤΡΑΠΕΖΩΝ</t>
         </is>
       </c>
       <c r="E195" s="1021" t="inlineStr">
         <is>
-          <t>European Universities initiative, European Education area</t>
+          <t>VP's portfolio, Developments in the Greek banking sector</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1021" t="inlineStr">
         <is>
-          <t>Chris Uregian</t>
+          <t>Catherine Sustek</t>
         </is>
       </c>
       <c r="B196" s="1018" t="inlineStr">
@@ -8863,12 +8863,12 @@
       </c>
       <c r="D196" s="1021" t="inlineStr">
         <is>
-          <t>ΕΛΛΗΝΙΚΗ ΕΝΩΣΗ ΤΡΑΠΕΖΩΝ</t>
+          <t>Conferencia de Rectores de las Universidades Españolas</t>
         </is>
       </c>
       <c r="E196" s="1021" t="inlineStr">
         <is>
-          <t>VP's portfolio, Developments in the Greek banking sector</t>
+          <t>European Universities initiative, European Education area</t>
         </is>
       </c>
     </row>

--- a/meetings_dumped/schinas_cabinet.xlsx
+++ b/meetings_dumped/schinas_cabinet.xlsx
@@ -3668,7 +3668,7 @@
     <row r="5">
       <c r="A5" s="1021" t="inlineStr">
         <is>
-          <t>Maria Luisa Llano Cardenal</t>
+          <t>Vangelis Demiris</t>
         </is>
       </c>
       <c r="B5" s="1018" t="inlineStr">
@@ -3678,24 +3678,24 @@
       </c>
       <c r="C5" s="1021" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>online</t>
         </is>
       </c>
       <c r="D5" s="1021" t="inlineStr">
         <is>
-          <t>European Healthcare Distribution Association</t>
+          <t>Fundación Privada Monte de Piedad y Caja de Ahorros San Fernando de Huelva, Jerez y Sevilla</t>
         </is>
       </c>
       <c r="E5" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Revision of the Pharmaceutical legislation </t>
+          <t xml:space="preserve"> Migration and Asylum</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1021" t="inlineStr">
         <is>
-          <t>Vangelis Demiris</t>
+          <t>Maria Luisa Llano Cardenal</t>
         </is>
       </c>
       <c r="B6" s="1018" t="inlineStr">
@@ -3705,24 +3705,24 @@
       </c>
       <c r="C6" s="1021" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D6" s="1021" t="inlineStr">
         <is>
-          <t>Fundación Privada Monte de Piedad y Caja de Ahorros San Fernando de Huelva, Jerez y Sevilla</t>
+          <t>European Healthcare Distribution Association</t>
         </is>
       </c>
       <c r="E6" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Migration and Asylum</t>
+          <t xml:space="preserve"> Revision of the Pharmaceutical legislation </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1021" t="inlineStr">
         <is>
-          <t>Chris Uregian</t>
+          <t>Despina Spanou, Maria Luisa Llano Cardenal</t>
         </is>
       </c>
       <c r="B7" s="1018" t="inlineStr">
@@ -3737,19 +3737,19 @@
       </c>
       <c r="D7" s="1021" t="inlineStr">
         <is>
-          <t>Mastercard Europe</t>
+          <t>European Federation of Pharmaceutical Industries and Associations</t>
         </is>
       </c>
       <c r="E7" s="1021" t="inlineStr">
         <is>
-          <t>Ukraine, cyber-resilience and skills, combatting child sexual abuse online</t>
+          <t xml:space="preserve">Revision of the pharmaceutical legislation </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1021" t="inlineStr">
         <is>
-          <t>Despina Spanou, Maria Luisa Llano Cardenal</t>
+          <t>Chris Uregian</t>
         </is>
       </c>
       <c r="B8" s="1018" t="inlineStr">
@@ -3764,12 +3764,12 @@
       </c>
       <c r="D8" s="1021" t="inlineStr">
         <is>
-          <t>European Federation of Pharmaceutical Industries and Associations</t>
+          <t>Mastercard Europe</t>
         </is>
       </c>
       <c r="E8" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve">Revision of the pharmaceutical legislation </t>
+          <t>Ukraine, cyber-resilience and skills, combatting child sexual abuse online</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
     <row r="14">
       <c r="A14" s="1021" t="inlineStr">
         <is>
-          <t>Maria Luisa Llano Cardenal</t>
+          <t>Natasha Bertaud</t>
         </is>
       </c>
       <c r="B14" s="1018" t="inlineStr">
@@ -3926,19 +3926,19 @@
       </c>
       <c r="D14" s="1021" t="inlineStr">
         <is>
-          <t>European Public Health Alliance, European Patients' Forum (EPF)</t>
+          <t>Universitetet i Bergen</t>
         </is>
       </c>
       <c r="E14" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pharma Strategy</t>
+          <t xml:space="preserve"> Migration and Asylum </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1021" t="inlineStr">
         <is>
-          <t>Natasha Bertaud</t>
+          <t>Maria Luisa Llano Cardenal</t>
         </is>
       </c>
       <c r="B15" s="1018" t="inlineStr">
@@ -3953,12 +3953,12 @@
       </c>
       <c r="D15" s="1021" t="inlineStr">
         <is>
-          <t>Universitetet i Bergen</t>
+          <t>European Public Health Alliance, European Patients' Forum (EPF)</t>
         </is>
       </c>
       <c r="E15" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Migration and Asylum </t>
+          <t xml:space="preserve"> Pharma Strategy</t>
         </is>
       </c>
     </row>
@@ -4116,12 +4116,12 @@
       </c>
       <c r="D21" s="1021" t="inlineStr">
         <is>
-          <t>European Jewish Congress</t>
+          <t>AJC Transatlantic Institute</t>
         </is>
       </c>
       <c r="E21" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Combatting Antisemitism, Holocaust Remembrance Day</t>
+          <t xml:space="preserve"> Combatting Antisemitism, Holocaust Remembrance Day</t>
         </is>
       </c>
     </row>
@@ -4143,12 +4143,12 @@
       </c>
       <c r="D22" s="1021" t="inlineStr">
         <is>
-          <t>AJC Transatlantic Institute</t>
+          <t>European Jewish Congress</t>
         </is>
       </c>
       <c r="E22" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Combatting Antisemitism, Holocaust Remembrance Day</t>
+          <t xml:space="preserve">  Combatting Antisemitism, Holocaust Remembrance Day</t>
         </is>
       </c>
     </row>
@@ -4182,7 +4182,7 @@
     <row r="24">
       <c r="A24" s="1021" t="inlineStr">
         <is>
-          <t>Chris Uregian, Despina Spanou</t>
+          <t>Maria Luisa Llano Cardenal</t>
         </is>
       </c>
       <c r="B24" s="1018" t="inlineStr">
@@ -4197,19 +4197,19 @@
       </c>
       <c r="D24" s="1021" t="inlineStr">
         <is>
-          <t>Microsoft Corporation</t>
+          <t>SMEunited aisbl</t>
         </is>
       </c>
       <c r="E24" s="1021" t="inlineStr">
         <is>
-          <t>Cybersecurity Skills Academy</t>
+          <t xml:space="preserve"> European Year of Skills (with Cabinet Commissioner Schmit)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1021" t="inlineStr">
         <is>
-          <t>Maria Luisa Llano Cardenal</t>
+          <t>Chris Uregian, Despina Spanou</t>
         </is>
       </c>
       <c r="B25" s="1018" t="inlineStr">
@@ -4224,19 +4224,19 @@
       </c>
       <c r="D25" s="1021" t="inlineStr">
         <is>
-          <t>SMEunited aisbl</t>
+          <t>Microsoft Corporation</t>
         </is>
       </c>
       <c r="E25" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> European Year of Skills (with Cabinet Commissioner Schmit)</t>
+          <t>Cybersecurity Skills Academy</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1021" t="inlineStr">
         <is>
-          <t>Despina Spanou, Chris Uregian</t>
+          <t>Chris Uregian, Despina Spanou</t>
         </is>
       </c>
       <c r="B26" s="1018" t="inlineStr">
@@ -4345,7 +4345,7 @@
     <row r="30">
       <c r="A30" s="1021" t="inlineStr">
         <is>
-          <t>Chris Uregian</t>
+          <t>Despina Spanou, Chris Uregian</t>
         </is>
       </c>
       <c r="B30" s="1018" t="inlineStr">
@@ -4360,37 +4360,10 @@
       </c>
       <c r="D30" s="1021" t="inlineStr">
         <is>
-          <t>Moody's Shared Services UK Ltd.</t>
+          <t>Cisco Systems Inc.</t>
         </is>
       </c>
       <c r="E30" s="1021" t="inlineStr">
-        <is>
-          <t xml:space="preserve">insights and research into cyber risk in the EU </t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1021" t="inlineStr">
-        <is>
-          <t>Despina Spanou, Chris Uregian</t>
-        </is>
-      </c>
-      <c r="B31" s="1018" t="inlineStr">
-        <is>
-          <t>01/12/2022</t>
-        </is>
-      </c>
-      <c r="C31" s="1021" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D31" s="1021" t="inlineStr">
-        <is>
-          <t>Cisco Systems Inc.</t>
-        </is>
-      </c>
-      <c r="E31" s="1021" t="inlineStr">
         <is>
           <t xml:space="preserve">- the transatlantic relationship
 - the EU security/cybersecurity agenda
@@ -4400,6 +4373,33 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="1021" t="inlineStr">
+        <is>
+          <t>Chris Uregian</t>
+        </is>
+      </c>
+      <c r="B31" s="1018" t="inlineStr">
+        <is>
+          <t>01/12/2022</t>
+        </is>
+      </c>
+      <c r="C31" s="1021" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D31" s="1021" t="inlineStr">
+        <is>
+          <t>Moody's Shared Services UK Ltd.</t>
+        </is>
+      </c>
+      <c r="E31" s="1021" t="inlineStr">
+        <is>
+          <t xml:space="preserve">insights and research into cyber risk in the EU </t>
+        </is>
+      </c>
+    </row>
     <row r="32">
       <c r="A32" s="1021" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
     <row r="34">
       <c r="A34" s="1021" t="inlineStr">
         <is>
-          <t>Maria Luisa Llano Cardenal, Despina Spanou</t>
+          <t>Despina Spanou, Maria Luisa Llano Cardenal</t>
         </is>
       </c>
       <c r="B34" s="1018" t="inlineStr">
@@ -4499,41 +4499,41 @@
       </c>
       <c r="D35" s="1021" t="inlineStr">
         <is>
-          <t>International Information System Security Certification Consortium</t>
+          <t>SEV - Hellenic Federation of Enterprises</t>
         </is>
       </c>
       <c r="E35" s="1021" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Cybersecurity skills academy</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1021" t="inlineStr">
-        <is>
-          <t>Chris Uregian</t>
-        </is>
-      </c>
-      <c r="B36" s="1018" t="inlineStr">
-        <is>
-          <t>26/10/2022</t>
-        </is>
-      </c>
-      <c r="C36" s="1021" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D36" s="1021" t="inlineStr">
-        <is>
-          <t>SEV - Hellenic Federation of Enterprises</t>
-        </is>
-      </c>
-      <c r="E36" s="1021" t="inlineStr">
         <is>
           <t>Meeting new Director General
 Energy crisis
 EU Energy package, Re-power EU</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1021" t="inlineStr">
+        <is>
+          <t>Chris Uregian</t>
+        </is>
+      </c>
+      <c r="B36" s="1018" t="inlineStr">
+        <is>
+          <t>26/10/2022</t>
+        </is>
+      </c>
+      <c r="C36" s="1021" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D36" s="1021" t="inlineStr">
+        <is>
+          <t>International Information System Security Certification Consortium</t>
+        </is>
+      </c>
+      <c r="E36" s="1021" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cybersecurity skills academy</t>
         </is>
       </c>
     </row>
@@ -4732,7 +4732,7 @@
     <row r="44">
       <c r="A44" s="1021" t="inlineStr">
         <is>
-          <t>Maria Luisa Llano Cardenal</t>
+          <t>Chris Uregian, Despina Spanou</t>
         </is>
       </c>
       <c r="B44" s="1018" t="inlineStr">
@@ -4742,24 +4742,24 @@
       </c>
       <c r="C44" s="1021" t="inlineStr">
         <is>
-          <t>Sitges</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D44" s="1021" t="inlineStr">
         <is>
-          <t>MEDICINES FOR EUROPE</t>
+          <t>Zoom Video Communications, Inc.</t>
         </is>
       </c>
       <c r="E44" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pharma strategy</t>
+          <t xml:space="preserve"> update on Zoom's new initiatives</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1021" t="inlineStr">
         <is>
-          <t>Despina Spanou, Chris Uregian</t>
+          <t>Maria Luisa Llano Cardenal</t>
         </is>
       </c>
       <c r="B45" s="1018" t="inlineStr">
@@ -4769,17 +4769,17 @@
       </c>
       <c r="C45" s="1021" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Sitges</t>
         </is>
       </c>
       <c r="D45" s="1021" t="inlineStr">
         <is>
-          <t>Zoom Video Communications, Inc.</t>
+          <t>MEDICINES FOR EUROPE</t>
         </is>
       </c>
       <c r="E45" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> update on Zoom's new initiatives</t>
+          <t xml:space="preserve"> Pharma strategy</t>
         </is>
       </c>
     </row>
@@ -4867,7 +4867,7 @@
     <row r="49">
       <c r="A49" s="1021" t="inlineStr">
         <is>
-          <t>Chris Uregian, Despina Spanou, Maria-Myrto Kanellopoulou</t>
+          <t>Despina Spanou, Chris Uregian, Maria-Myrto Kanellopoulou</t>
         </is>
       </c>
       <c r="B49" s="1018" t="inlineStr">
@@ -4894,56 +4894,56 @@
     <row r="50">
       <c r="A50" s="1021" t="inlineStr">
         <is>
+          <t>Despina Spanou</t>
+        </is>
+      </c>
+      <c r="B50" s="1018" t="inlineStr">
+        <is>
+          <t>15/06/2022</t>
+        </is>
+      </c>
+      <c r="C50" s="1021" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D50" s="1021" t="inlineStr">
+        <is>
+          <t>Bitkom e.V.</t>
+        </is>
+      </c>
+      <c r="E50" s="1021" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cybersecurity skills</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1021" t="inlineStr">
+        <is>
           <t>Chris Uregian</t>
         </is>
       </c>
-      <c r="B50" s="1018" t="inlineStr">
+      <c r="B51" s="1018" t="inlineStr">
         <is>
           <t>15/06/2022</t>
         </is>
       </c>
-      <c r="C50" s="1021" t="inlineStr">
+      <c r="C51" s="1021" t="inlineStr">
         <is>
           <t>Brussels</t>
         </is>
       </c>
-      <c r="D50" s="1021" t="inlineStr">
+      <c r="D51" s="1021" t="inlineStr">
         <is>
           <t>Royal Caribbean Group</t>
         </is>
       </c>
-      <c r="E50" s="1021" t="inlineStr">
+      <c r="E51" s="1021" t="inlineStr">
         <is>
           <t xml:space="preserve">- post-COVID recovery of the cruise industry
 - role of the maritime sector in contributing to the green transition
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1021" t="inlineStr">
-        <is>
-          <t>Despina Spanou</t>
-        </is>
-      </c>
-      <c r="B51" s="1018" t="inlineStr">
-        <is>
-          <t>15/06/2022</t>
-        </is>
-      </c>
-      <c r="C51" s="1021" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D51" s="1021" t="inlineStr">
-        <is>
-          <t>Bitkom e.V.</t>
-        </is>
-      </c>
-      <c r="E51" s="1021" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Cybersecurity skills</t>
         </is>
       </c>
     </row>
@@ -5063,7 +5063,7 @@
     <row r="56">
       <c r="A56" s="1021" t="inlineStr">
         <is>
-          <t>Natasha Bertaud, Chris Uregian</t>
+          <t>Chris Uregian, Natasha Bertaud</t>
         </is>
       </c>
       <c r="B56" s="1018" t="inlineStr">
@@ -5225,7 +5225,7 @@
     <row r="62">
       <c r="A62" s="1021" t="inlineStr">
         <is>
-          <t>Chris Uregian</t>
+          <t>Maria Luisa Llano Cardenal, Despina Spanou</t>
         </is>
       </c>
       <c r="B62" s="1018" t="inlineStr">
@@ -5235,17 +5235,17 @@
       </c>
       <c r="C62" s="1021" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>online meeting</t>
         </is>
       </c>
       <c r="D62" s="1021" t="inlineStr">
         <is>
-          <t>Vodafone Belgium SA</t>
+          <t>European Federation of Pharmaceutical Industries and Associations</t>
         </is>
       </c>
       <c r="E62" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ukraine crisis response, cybersecurity</t>
+          <t xml:space="preserve"> access to medicines online portal</t>
         </is>
       </c>
     </row>
@@ -5279,7 +5279,7 @@
     <row r="64">
       <c r="A64" s="1021" t="inlineStr">
         <is>
-          <t>Despina Spanou, Maria Luisa Llano Cardenal</t>
+          <t>Chris Uregian</t>
         </is>
       </c>
       <c r="B64" s="1018" t="inlineStr">
@@ -5289,17 +5289,17 @@
       </c>
       <c r="C64" s="1021" t="inlineStr">
         <is>
-          <t>online meeting</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D64" s="1021" t="inlineStr">
         <is>
-          <t>European Federation of Pharmaceutical Industries and Associations</t>
+          <t>Vodafone Belgium SA</t>
         </is>
       </c>
       <c r="E64" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> access to medicines online portal</t>
+          <t xml:space="preserve"> Ukraine crisis response, cybersecurity</t>
         </is>
       </c>
     </row>
@@ -5390,7 +5390,7 @@
     <row r="68">
       <c r="A68" s="1021" t="inlineStr">
         <is>
-          <t>Vangelis Demiris, Maria-Myrto Kanellopoulou</t>
+          <t>Maria-Myrto Kanellopoulou, Vangelis Demiris</t>
         </is>
       </c>
       <c r="B68" s="1018" t="inlineStr">
@@ -5417,7 +5417,7 @@
     <row r="69">
       <c r="A69" s="1021" t="inlineStr">
         <is>
-          <t>Vangelis Demiris</t>
+          <t>Chris Uregian, Despina Spanou</t>
         </is>
       </c>
       <c r="B69" s="1018" t="inlineStr">
@@ -5427,24 +5427,24 @@
       </c>
       <c r="C69" s="1021" t="inlineStr">
         <is>
-          <t>Zurich, Switzerland</t>
+          <t>Brussels</t>
         </is>
       </c>
       <c r="D69" s="1021" t="inlineStr">
         <is>
-          <t>Fédération Internationale de Football Association</t>
+          <t>ΟΡΓΑΝΙΣΜΟΣ ΛΙΜΕΝΟΣ ΘΕΣΣΑΛΟΝΙΚΗΣ ΑΕ</t>
         </is>
       </c>
       <c r="E69" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FIFA World Cup Qatar 2022™ and Human Rights, Future of global football and the European model of sport, FIFA Transfer System Reform, Safe Sport Entity</t>
+          <t xml:space="preserve"> update on investment plan</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1021" t="inlineStr">
         <is>
-          <t>Chris Uregian, Despina Spanou</t>
+          <t>Vangelis Demiris</t>
         </is>
       </c>
       <c r="B70" s="1018" t="inlineStr">
@@ -5454,17 +5454,17 @@
       </c>
       <c r="C70" s="1021" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Zurich, Switzerland</t>
         </is>
       </c>
       <c r="D70" s="1021" t="inlineStr">
         <is>
-          <t>ΟΡΓΑΝΙΣΜΟΣ ΛΙΜΕΝΟΣ ΘΕΣΣΑΛΟΝΙΚΗΣ ΑΕ</t>
+          <t>Fédération Internationale de Football Association</t>
         </is>
       </c>
       <c r="E70" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> update on investment plan</t>
+          <t xml:space="preserve"> FIFA World Cup Qatar 2022™ and Human Rights, Future of global football and the European model of sport, FIFA Transfer System Reform, Safe Sport Entity</t>
         </is>
       </c>
     </row>
@@ -5660,7 +5660,7 @@
     <row r="78">
       <c r="A78" s="1021" t="inlineStr">
         <is>
-          <t>Natasha Bertaud, Maria-Myrto Kanellopoulou, Despina Spanou</t>
+          <t>Despina Spanou, Maria-Myrto Kanellopoulou, Natasha Bertaud</t>
         </is>
       </c>
       <c r="B78" s="1018" t="inlineStr">
@@ -5714,7 +5714,7 @@
     <row r="80">
       <c r="A80" s="1021" t="inlineStr">
         <is>
-          <t>Maria-Myrto Kanellopoulou, Maria Krikou, Vangelis Demiris</t>
+          <t>Vangelis Demiris, Maria-Myrto Kanellopoulou, Maria Krikou</t>
         </is>
       </c>
       <c r="B80" s="1018" t="inlineStr">
@@ -5832,12 +5832,12 @@
       </c>
       <c r="C84" s="1021" t="inlineStr">
         <is>
-          <t>Athens</t>
+          <t>Paianias</t>
         </is>
       </c>
       <c r="D84" s="1021" t="inlineStr">
         <is>
-          <t>Panhellenic Union of Pharmaceutical Industry</t>
+          <t>Boehringer Ingelheim</t>
         </is>
       </c>
       <c r="E84" s="1021" t="inlineStr">
@@ -5859,17 +5859,17 @@
       </c>
       <c r="C85" s="1021" t="inlineStr">
         <is>
-          <t>Paianias</t>
+          <t>Athens</t>
         </is>
       </c>
       <c r="D85" s="1021" t="inlineStr">
         <is>
-          <t>Boehringer Ingelheim</t>
+          <t>MEDICINES FOR EUROPE</t>
         </is>
       </c>
       <c r="E85" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pharma policies</t>
+          <t xml:space="preserve"> Pharma Strategy </t>
         </is>
       </c>
     </row>
@@ -5891,12 +5891,12 @@
       </c>
       <c r="D86" s="1021" t="inlineStr">
         <is>
-          <t>MEDICINES FOR EUROPE</t>
+          <t>Panhellenic Union of Pharmaceutical Industry</t>
         </is>
       </c>
       <c r="E86" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pharma Strategy </t>
+          <t xml:space="preserve"> Pharma policies</t>
         </is>
       </c>
     </row>
@@ -6038,7 +6038,7 @@
     <row r="92">
       <c r="A92" s="1021" t="inlineStr">
         <is>
-          <t>Catherine Sustek</t>
+          <t>Chris Uregian</t>
         </is>
       </c>
       <c r="B92" s="1018" t="inlineStr">
@@ -6053,19 +6053,19 @@
       </c>
       <c r="D92" s="1021" t="inlineStr">
         <is>
-          <t>Erasmus Student Network</t>
+          <t>Philanthropy Europe Association, Donors and Foundations Networks in Europe</t>
         </is>
       </c>
       <c r="E92" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Erasmus Student Network</t>
+          <t xml:space="preserve"> Philanthropy</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1021" t="inlineStr">
         <is>
-          <t>Chris Uregian</t>
+          <t>Catherine Sustek</t>
         </is>
       </c>
       <c r="B93" s="1018" t="inlineStr">
@@ -6080,19 +6080,19 @@
       </c>
       <c r="D93" s="1021" t="inlineStr">
         <is>
-          <t>Philanthropy Europe Association, Donors and Foundations Networks in Europe</t>
+          <t>Erasmus Student Network</t>
         </is>
       </c>
       <c r="E93" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Philanthropy</t>
+          <t xml:space="preserve"> Erasmus Student Network</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1021" t="inlineStr">
         <is>
-          <t>Chris Uregian, Maria-Myrto Kanellopoulou, Despina Spanou</t>
+          <t>Despina Spanou, Chris Uregian, Maria-Myrto Kanellopoulou</t>
         </is>
       </c>
       <c r="B94" s="1018" t="inlineStr">
@@ -6146,7 +6146,7 @@
     <row r="96">
       <c r="A96" s="1021" t="inlineStr">
         <is>
-          <t>Chris Uregian, Maria-Myrto Kanellopoulou</t>
+          <t>Maria-Myrto Kanellopoulou, Chris Uregian</t>
         </is>
       </c>
       <c r="B96" s="1018" t="inlineStr">
@@ -6200,7 +6200,7 @@
     <row r="98">
       <c r="A98" s="1021" t="inlineStr">
         <is>
-          <t>Chris Uregian, Maria-Myrto Kanellopoulou</t>
+          <t>Maria-Myrto Kanellopoulou, Chris Uregian</t>
         </is>
       </c>
       <c r="B98" s="1018" t="inlineStr">
@@ -6254,7 +6254,7 @@
     <row r="100">
       <c r="A100" s="1021" t="inlineStr">
         <is>
-          <t>Vangelis Demiris</t>
+          <t>Maria Luisa Llano Cardenal</t>
         </is>
       </c>
       <c r="B100" s="1018" t="inlineStr">
@@ -6264,24 +6264,24 @@
       </c>
       <c r="C100" s="1021" t="inlineStr">
         <is>
-          <t>BERL</t>
+          <t>online</t>
         </is>
       </c>
       <c r="D100" s="1021" t="inlineStr">
         <is>
-          <t>Udruga za sport, rekreaciju i edukaciju- Igre mladih</t>
+          <t>Medichem, S.A., European Federation of Pharmaceutical Industries and Associations, Leuphana Universität Lüneburg, Fresenius Kabi Deutschland GmbH, SANOFI, European Chemical Industry Council, Teva Pharmaceuticals Europe BV, Pfizer Inc., Pharmaceutical Group of the European Union, Novo Nordisk A/S, Bureau Européen des Unions de Consommateurs, MEDICINES FOR EUROPE, The European Association of Hospital Pharmacists, European Patients' Forum (EPF), European Healthcare Distribution Association</t>
         </is>
       </c>
       <c r="E100" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vice-President Schinas holds a meeting with the representatives of the Youth Sports Game</t>
+          <t xml:space="preserve">Supply chains for medicines </t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1021" t="inlineStr">
         <is>
-          <t>Maria Luisa Llano Cardenal</t>
+          <t>Vangelis Demiris</t>
         </is>
       </c>
       <c r="B101" s="1018" t="inlineStr">
@@ -6291,17 +6291,17 @@
       </c>
       <c r="C101" s="1021" t="inlineStr">
         <is>
-          <t>online</t>
+          <t>BERL</t>
         </is>
       </c>
       <c r="D101" s="1021" t="inlineStr">
         <is>
-          <t>Medichem, S.A., European Federation of Pharmaceutical Industries and Associations, Leuphana Universität Lüneburg, Fresenius Kabi Deutschland GmbH, SANOFI, European Chemical Industry Council, Teva Pharmaceuticals Europe BV, Pfizer Inc., Pharmaceutical Group of the European Union, Novo Nordisk A/S, Bureau Européen des Unions de Consommateurs, MEDICINES FOR EUROPE, The European Association of Hospital Pharmacists, European Patients' Forum (EPF), European Healthcare Distribution Association</t>
+          <t>Udruga za sport, rekreaciju i edukaciju- Igre mladih</t>
         </is>
       </c>
       <c r="E101" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve">Supply chains for medicines </t>
+          <t xml:space="preserve"> Vice-President Schinas holds a meeting with the representatives of the Youth Sports Game</t>
         </is>
       </c>
     </row>
@@ -7065,7 +7065,7 @@
     <row r="130">
       <c r="A130" s="1021" t="inlineStr">
         <is>
-          <t>Catherine Sustek</t>
+          <t>Natasha Bertaud</t>
         </is>
       </c>
       <c r="B130" s="1018" t="inlineStr">
@@ -7075,24 +7075,24 @@
       </c>
       <c r="C130" s="1021" t="inlineStr">
         <is>
-          <t>virtual meeting</t>
+          <t>Virtual</t>
         </is>
       </c>
       <c r="D130" s="1021" t="inlineStr">
         <is>
-          <t>ENEL SpA</t>
+          <t>Bruegel</t>
         </is>
       </c>
       <c r="E130" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Recovery plan</t>
+          <t xml:space="preserve"> New Pact on Migration and Asylum </t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1021" t="inlineStr">
         <is>
-          <t>Natasha Bertaud</t>
+          <t>Catherine Sustek</t>
         </is>
       </c>
       <c r="B131" s="1018" t="inlineStr">
@@ -7102,17 +7102,17 @@
       </c>
       <c r="C131" s="1021" t="inlineStr">
         <is>
-          <t>Virtual</t>
+          <t>virtual meeting</t>
         </is>
       </c>
       <c r="D131" s="1021" t="inlineStr">
         <is>
-          <t>Bruegel</t>
+          <t>ENEL SpA</t>
         </is>
       </c>
       <c r="E131" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New Pact on Migration and Asylum </t>
+          <t xml:space="preserve"> Recovery plan</t>
         </is>
       </c>
     </row>
@@ -7156,17 +7156,17 @@
       </c>
       <c r="C133" s="1021" t="inlineStr">
         <is>
-          <t>virtually</t>
+          <t>Virtually</t>
         </is>
       </c>
       <c r="D133" s="1021" t="inlineStr">
         <is>
-          <t>Union of European Football Associations</t>
+          <t>Udruga za sport, rekreaciju i edukaciju- Igre mladih</t>
         </is>
       </c>
       <c r="E133" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vice-President Schinas holds a videoconference call with the UEFA President</t>
+          <t xml:space="preserve"> Vice-President Schinas holds a videoconference call with the representatives of the Youth Sports Game</t>
         </is>
       </c>
     </row>
@@ -7183,17 +7183,17 @@
       </c>
       <c r="C134" s="1021" t="inlineStr">
         <is>
-          <t>Virtually</t>
+          <t>virtually</t>
         </is>
       </c>
       <c r="D134" s="1021" t="inlineStr">
         <is>
-          <t>Udruga za sport, rekreaciju i edukaciju- Igre mladih</t>
+          <t>Union of European Football Associations</t>
         </is>
       </c>
       <c r="E134" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vice-President Schinas holds a videoconference call with the representatives of the Youth Sports Game</t>
+          <t xml:space="preserve"> Vice-President Schinas holds a videoconference call with the UEFA President</t>
         </is>
       </c>
     </row>
@@ -7308,7 +7308,7 @@
     <row r="139">
       <c r="A139" s="1021" t="inlineStr">
         <is>
-          <t>Catherine Sustek, Despina Spanou</t>
+          <t>Despina Spanou, Catherine Sustek</t>
         </is>
       </c>
       <c r="B139" s="1018" t="inlineStr">
@@ -7416,7 +7416,7 @@
     <row r="143">
       <c r="A143" s="1021" t="inlineStr">
         <is>
-          <t>Despina Spanou, Maria Luisa Llano Cardenal</t>
+          <t>Maria Luisa Llano Cardenal, Despina Spanou</t>
         </is>
       </c>
       <c r="B143" s="1018" t="inlineStr">
@@ -7470,7 +7470,7 @@
     <row r="145">
       <c r="A145" s="1021" t="inlineStr">
         <is>
-          <t>Despina Spanou, Maria-Myrto Kanellopoulou</t>
+          <t>Maria-Myrto Kanellopoulou, Despina Spanou</t>
         </is>
       </c>
       <c r="B145" s="1018" t="inlineStr">
@@ -7578,7 +7578,7 @@
     <row r="149">
       <c r="A149" s="1021" t="inlineStr">
         <is>
-          <t>Despina Spanou, Vangelis Demiris</t>
+          <t>Vangelis Demiris, Despina Spanou</t>
         </is>
       </c>
       <c r="B149" s="1018" t="inlineStr">
@@ -7696,17 +7696,17 @@
       </c>
       <c r="C153" s="1021" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>Conference call</t>
         </is>
       </c>
       <c r="D153" s="1021" t="inlineStr">
         <is>
-          <t>Aerospace, Security and Defence Industries Association of Europe</t>
+          <t>Union of European Football Associations</t>
         </is>
       </c>
       <c r="E153" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Security Union</t>
+          <t>European Way of Life portfolio and European football and sports</t>
         </is>
       </c>
     </row>
@@ -7723,17 +7723,17 @@
       </c>
       <c r="C154" s="1021" t="inlineStr">
         <is>
-          <t>Conference call</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D154" s="1021" t="inlineStr">
         <is>
-          <t>Union of European Football Associations</t>
+          <t>Aerospace, Security and Defence Industries Association of Europe</t>
         </is>
       </c>
       <c r="E154" s="1021" t="inlineStr">
         <is>
-          <t>European Way of Life portfolio and European football and sports</t>
+          <t xml:space="preserve"> Security Union</t>
         </is>
       </c>
     </row>
@@ -7767,7 +7767,7 @@
     <row r="156">
       <c r="A156" s="1021" t="inlineStr">
         <is>
-          <t>Vangelis Demiris, Despina Spanou</t>
+          <t>Despina Spanou, Vangelis Demiris</t>
         </is>
       </c>
       <c r="B156" s="1018" t="inlineStr">
@@ -7794,7 +7794,7 @@
     <row r="157">
       <c r="A157" s="1021" t="inlineStr">
         <is>
-          <t>Catherine Sustek, Maria Luisa Llano Cardenal, Despina Spanou</t>
+          <t>Catherine Sustek, Despina Spanou, Maria Luisa Llano Cardenal</t>
         </is>
       </c>
       <c r="B157" s="1018" t="inlineStr">
@@ -7821,7 +7821,7 @@
     <row r="158">
       <c r="A158" s="1021" t="inlineStr">
         <is>
-          <t>Maria Luisa Llano Cardenal</t>
+          <t>Despina Spanou, Vangelis Demiris</t>
         </is>
       </c>
       <c r="B158" s="1018" t="inlineStr">
@@ -7836,19 +7836,19 @@
       </c>
       <c r="D158" s="1021" t="inlineStr">
         <is>
-          <t>BUSINESSEUROPE, SGI Europe, SMEunited aisbl, EUROPEAN TRADE UNION CONFEDERATION</t>
+          <t>Aerospace, Security and Defence Industries Association of Europe</t>
         </is>
       </c>
       <c r="E158" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Skills  Agenda</t>
+          <t xml:space="preserve"> Exchange of views on the new Security Union Strategy</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1021" t="inlineStr">
         <is>
-          <t>Vangelis Demiris, Despina Spanou</t>
+          <t>Maria Luisa Llano Cardenal</t>
         </is>
       </c>
       <c r="B159" s="1018" t="inlineStr">
@@ -7863,19 +7863,19 @@
       </c>
       <c r="D159" s="1021" t="inlineStr">
         <is>
-          <t>Aerospace, Security and Defence Industries Association of Europe</t>
+          <t>BUSINESSEUROPE, SGI Europe, SMEunited aisbl, EUROPEAN TRADE UNION CONFEDERATION</t>
         </is>
       </c>
       <c r="E159" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Exchange of views on the new Security Union Strategy</t>
+          <t xml:space="preserve"> Skills  Agenda</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1021" t="inlineStr">
         <is>
-          <t>Despina Spanou, Maria Luisa Llano Cardenal</t>
+          <t>Maria Luisa Llano Cardenal, Despina Spanou</t>
         </is>
       </c>
       <c r="B160" s="1018" t="inlineStr">
@@ -7956,7 +7956,7 @@
     <row r="163">
       <c r="A163" s="1021" t="inlineStr">
         <is>
-          <t>Chris Uregian, Despina Spanou</t>
+          <t>Despina Spanou, Chris Uregian</t>
         </is>
       </c>
       <c r="B163" s="1018" t="inlineStr">
@@ -8091,7 +8091,7 @@
     <row r="168">
       <c r="A168" s="1021" t="inlineStr">
         <is>
-          <t>Chris Uregian</t>
+          <t>Catherine Sustek</t>
         </is>
       </c>
       <c r="B168" s="1018" t="inlineStr">
@@ -8101,24 +8101,24 @@
       </c>
       <c r="C168" s="1021" t="inlineStr">
         <is>
-          <t>Virtual meeting</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D168" s="1021" t="inlineStr">
         <is>
-          <t>(SETE) GREEK TOURISM CONFEDERATION</t>
+          <t>Hope and Homes for Children, Lumos Foundation</t>
         </is>
       </c>
       <c r="E168" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tourism package</t>
+          <t xml:space="preserve">Children in migration   </t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1021" t="inlineStr">
         <is>
-          <t>Catherine Sustek</t>
+          <t>Chris Uregian</t>
         </is>
       </c>
       <c r="B169" s="1018" t="inlineStr">
@@ -8128,24 +8128,24 @@
       </c>
       <c r="C169" s="1021" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>Virtual meeting</t>
         </is>
       </c>
       <c r="D169" s="1021" t="inlineStr">
         <is>
-          <t>Hope and Homes for Children, Lumos Foundation</t>
+          <t>(SETE) GREEK TOURISM CONFEDERATION</t>
         </is>
       </c>
       <c r="E169" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve">Children in migration   </t>
+          <t xml:space="preserve"> Tourism package</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1021" t="inlineStr">
         <is>
-          <t>Despina Spanou</t>
+          <t>Maria Luisa Llano Cardenal</t>
         </is>
       </c>
       <c r="B170" s="1018" t="inlineStr">
@@ -8155,24 +8155,24 @@
       </c>
       <c r="C170" s="1021" t="inlineStr">
         <is>
-          <t>Virtual meeting via teleconference</t>
+          <t>Videoconference</t>
         </is>
       </c>
       <c r="D170" s="1021" t="inlineStr">
         <is>
-          <t>European Cyber Security Organisation</t>
+          <t>Atlantic Council of the United States, Inc</t>
         </is>
       </c>
       <c r="E170" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cybersecurity and ECSO's initiatives</t>
+          <t xml:space="preserve">US-EU at 70: The Way Forward </t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1021" t="inlineStr">
         <is>
-          <t>Maria Luisa Llano Cardenal</t>
+          <t>Despina Spanou</t>
         </is>
       </c>
       <c r="B171" s="1018" t="inlineStr">
@@ -8182,17 +8182,17 @@
       </c>
       <c r="C171" s="1021" t="inlineStr">
         <is>
-          <t>Videoconference</t>
+          <t>Virtual meeting via teleconference</t>
         </is>
       </c>
       <c r="D171" s="1021" t="inlineStr">
         <is>
-          <t>Atlantic Council of the United States, Inc</t>
+          <t>European Cyber Security Organisation</t>
         </is>
       </c>
       <c r="E171" s="1021" t="inlineStr">
         <is>
-          <t xml:space="preserve">US-EU at 70: The Way Forward </t>
+          <t xml:space="preserve"> Cybersecurity and ECSO's initiatives</t>
         </is>
       </c>
     </row>
@@ -8767,7 +8767,7 @@
     <row r="193">
       <c r="A193" s="1021" t="inlineStr">
         <is>
-          <t>Catherine Sustek, Maria Luisa Llano Cardenal</t>
+          <t>Maria Luisa Llano Cardenal, Catherine Sustek</t>
         </is>
       </c>
       <c r="B193" s="1018" t="inlineStr">
@@ -8821,7 +8821,7 @@
     <row r="195">
       <c r="A195" s="1021" t="inlineStr">
         <is>
-          <t>Chris Uregian</t>
+          <t>Catherine Sustek</t>
         </is>
       </c>
       <c r="B195" s="1018" t="inlineStr">
@@ -8836,19 +8836,19 @@
       </c>
       <c r="D195" s="1021" t="inlineStr">
         <is>
-          <t>ΕΛΛΗΝΙΚΗ ΕΝΩΣΗ ΤΡΑΠΕΖΩΝ</t>
+          <t>Conferencia de Rectores de las Universidades Españolas</t>
         </is>
       </c>
       <c r="E195" s="1021" t="inlineStr">
         <is>
-          <t>VP's portfolio, Developments in the Greek banking sector</t>
+          <t>European Universities initiative, European Education area</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1021" t="inlineStr">
         <is>
-          <t>Catherine Sustek</t>
+          <t>Chris Uregian</t>
         </is>
       </c>
       <c r="B196" s="1018" t="inlineStr">
@@ -8863,12 +8863,12 @@
       </c>
       <c r="D196" s="1021" t="inlineStr">
         <is>
-          <t>Conferencia de Rectores de las Universidades Españolas</t>
+          <t>ΕΛΛΗΝΙΚΗ ΕΝΩΣΗ ΤΡΑΠΕΖΩΝ</t>
         </is>
       </c>
       <c r="E196" s="1021" t="inlineStr">
         <is>
-          <t>European Universities initiative, European Education area</t>
+          <t>VP's portfolio, Developments in the Greek banking sector</t>
         </is>
       </c>
     </row>
